--- a/module01/possums.xlsx
+++ b/module01/possums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisyd-my.sharepoint.com/personal/clare_mcarthur_sydney_edu_au/Documents/CLARE-ALL/Data/Mine/Sydney/Teaching/BIOL2022-BEDA/2024/Lectures/Clare/Angelica possdataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{2E797775-CDA3-4513-8FFF-7E89C0B26C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{255134DC-19B0-4F7A-8A34-79AE5CAEDD97}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AF5A0A49-3B35-4235-9ABA-A85EF61359F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B468F1F2-9F21-4A51-8BCB-3239BED2A27C}"/>
   <bookViews>
-    <workbookView xWindow="33735" yWindow="1830" windowWidth="21840" windowHeight="11925" xr2:uid="{1B4F7BBE-FA22-4933-BB09-5502D8AAFDB0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B4F7BBE-FA22-4933-BB09-5502D8AAFDB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
   <si>
     <t>PossID</t>
   </si>
@@ -87,6 +87,9 @@
     <t>AactiveTBLUP</t>
   </si>
   <si>
+    <t>individual microchip number</t>
+  </si>
+  <si>
     <t>sex of individual (Male, Female, Unknown)</t>
   </si>
   <si>
@@ -147,6 +150,24 @@
     <t>NEW</t>
   </si>
   <si>
+    <t>Eimeria Count</t>
+  </si>
+  <si>
+    <t>Eimeria count taken closest to puzzle trial date</t>
+  </si>
+  <si>
+    <t>Health index-Measure for liver function (g/L)</t>
+  </si>
+  <si>
+    <t>Health index-Measure for kidney function (mmol/L)</t>
+  </si>
+  <si>
+    <t>Health index-Measure for body condition (g/L)</t>
+  </si>
+  <si>
+    <t>Health index-Measure for electrolytes (mmol/L)</t>
+  </si>
+  <si>
     <t>Personality Trait-BLUP calculated for wiggle</t>
   </si>
   <si>
@@ -165,28 +186,13 @@
     <t>Personality Trait-BLUP calculated for activity2</t>
   </si>
   <si>
-    <t>Health index-Measure for liver function (g/L)</t>
-  </si>
-  <si>
-    <t>Health index-Measure for kidney function (mmol/L)</t>
-  </si>
-  <si>
-    <t>Health index-Measure for body condition (g/L)</t>
-  </si>
-  <si>
-    <t>Health index-Measure for electrolytes (mmol/L)</t>
-  </si>
-  <si>
-    <t>individual microchip number (unique identity number)</t>
+    <t>OLD = possum completed a puzzle trial in the 2022 (and current 2024 study);; NEW = possum first trapped and only completed  a puzzle trial in the current 2024 study</t>
   </si>
   <si>
     <t>Did the possum solve its first trial in current study? (1/0)</t>
   </si>
   <si>
     <t>Time it took the possum to solve the trial (in seconds)in current study</t>
-  </si>
-  <si>
-    <t>OLD = possum completed a puzzle trial in the 2022 (and current 2024 study);; NEW = possum first trapped and only completed  a puzzle trial in the current 2024 study</t>
   </si>
 </sst>
 </file>
@@ -568,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC730B02-0AA9-4E5A-B0FA-F702359F3E5C}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -593,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -601,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -609,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -617,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -625,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -633,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -641,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -649,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -657,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -665,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -673,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -681,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -689,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -697,12 +703,12 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -710,18 +716,26 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -731,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA1A3FC-5838-45D1-8DDF-06A22DD88629}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,9 +769,10 @@
     <col min="14" max="14" width="14.1796875" customWidth="1"/>
     <col min="15" max="15" width="13.26953125" customWidth="1"/>
     <col min="16" max="16" width="9.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,13 +804,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -804,21 +819,24 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3">
         <v>2.15</v>
@@ -831,16 +849,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1">
         <v>0.267620005425524</v>
@@ -861,21 +879,24 @@
         <v>0.30249471808072897</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
         <v>2.5499999999999998</v>
@@ -918,7 +939,7 @@
         <v>0.36063945861961899</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
@@ -926,13 +947,16 @@
       <c r="R3" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>2.95</v>
@@ -975,7 +999,7 @@
         <v>0.208568598748676</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -983,13 +1007,16 @@
       <c r="R4" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3">
         <v>2.7</v>
@@ -1032,7 +1059,7 @@
         <v>-0.32144307462505201</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -1040,13 +1067,16 @@
       <c r="R5" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
         <v>2.2000000000000002</v>
@@ -1089,7 +1119,7 @@
         <v>-2.1774027232311501E-2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="1">
         <v>1</v>
@@ -1097,13 +1127,16 @@
       <c r="R6" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1156317</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3">
         <v>1.85</v>
@@ -1146,7 +1179,7 @@
         <v>1.0628490174354399</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
@@ -1154,13 +1187,16 @@
       <c r="R7" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>40455646</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
         <v>2.5499999999999998</v>
@@ -1203,7 +1239,7 @@
         <v>0.37182113949248202</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
@@ -1211,13 +1247,16 @@
       <c r="R8" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>40455984</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3">
         <v>2.6</v>
@@ -1260,7 +1299,7 @@
         <v>0.68454595381865302</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="1">
         <v>1</v>
@@ -1268,13 +1307,16 @@
       <c r="R9" s="1">
         <v>272</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>40458386</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -1290,7 +1332,7 @@
         <v>38.417000000000002</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>59.744</v>
@@ -1317,7 +1359,7 @@
         <v>0.190677909352094</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="1">
         <v>1</v>
@@ -1325,13 +1367,16 @@
       <c r="R10" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>40458927</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3">
         <v>2.25</v>
@@ -1344,16 +1389,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1">
         <v>0.20830050031535699</v>
@@ -1374,21 +1419,24 @@
         <v>-0.25211665321329901</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>40459185</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
         <v>2.2999999999999998</v>
@@ -1401,16 +1449,16 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1">
         <v>0.26432447736384801</v>
@@ -1431,7 +1479,7 @@
         <v>0.103460798543759</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
@@ -1439,13 +1487,16 @@
       <c r="R12" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>40459241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3">
         <v>3.05</v>
@@ -1488,21 +1539,24 @@
         <v>-5.2866270053751302E-2</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>40459393</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3">
         <v>1.65</v>
@@ -1545,7 +1599,7 @@
         <v>2.20271589332896E-2</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="1">
         <v>1</v>
@@ -1553,13 +1607,16 @@
       <c r="R14" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>6135876</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
         <v>3.05</v>
@@ -1572,16 +1629,16 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1">
         <v>0.132219231990752</v>
@@ -1602,7 +1659,7 @@
         <v>-0.55407614096702695</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="1">
         <v>1</v>
@@ -1610,13 +1667,16 @@
       <c r="R15" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>6137410</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
         <v>2.6</v>
@@ -1659,7 +1719,7 @@
         <v>0.16607821143179499</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="1">
         <v>1</v>
@@ -1667,13 +1727,16 @@
       <c r="R16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>6138024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>3.4</v>
@@ -1716,21 +1779,24 @@
         <v>0.87698254671154896</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>6138055</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
         <v>2.75</v>
@@ -1743,16 +1809,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1">
         <v>0.20058868838649699</v>
@@ -1773,21 +1839,24 @@
         <v>-0.28789803200646202</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="S18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>6138303</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3">
         <v>2.4</v>
@@ -1830,7 +1899,7 @@
         <v>-0.205153593547272</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="1">
         <v>1</v>
@@ -1838,13 +1907,16 @@
       <c r="R19" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>6138321</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3">
         <v>2.65</v>
@@ -1887,7 +1959,7 @@
         <v>0.45122411735902501</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="1">
         <v>1</v>
@@ -1895,13 +1967,16 @@
       <c r="R20" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>6138714</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3">
         <v>2.6</v>
@@ -1944,13 +2019,16 @@
         <v>0.35840312244504602</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="S21" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
